--- a/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/BARTHEL_R2-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.060153244717291</v>
+        <v>3.522921220698907</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.449204000293272</v>
+        <v>1.093251079040292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.467493089657633</v>
+        <v>5.720129477916097</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.727500778250203</v>
+        <v>8.094071980930497</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.252141057220942</v>
+        <v>6.648003665342925</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.64969790336797</v>
+        <v>12.42981273685696</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.721244540191817</v>
+        <v>7.73426417060691</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>5.775655228499408</v>
+        <v>6.16876709746148</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.29354661348339</v>
+        <v>11.08138706030312</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.01868942761024</v>
+        <v>13.26800272492293</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.35550524549378</v>
+        <v>10.70150517316181</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.75092384014798</v>
+        <v>14.89883481415709</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.34597225382296</v>
+        <v>18.0121202799474</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.49857013595532</v>
+        <v>16.37001879887872</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.62192600384017</v>
+        <v>20.72157331473001</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>14.69504401174094</v>
+        <v>14.48335949878982</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>13.27005504883118</v>
+        <v>12.92977167368451</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>17.95976444760871</v>
+        <v>17.63357245424423</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.2482450027395515</v>
+        <v>0.2780932451359747</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1038278045601811</v>
+        <v>0.08062863556123062</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4121043011868064</v>
+        <v>0.4817420663595858</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.5231180583747541</v>
+        <v>0.4757312043572356</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3979078369911997</v>
+        <v>0.3951995782541115</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7557031693457316</v>
+        <v>0.7741319450192948</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5472646222868555</v>
+        <v>0.5500821615558704</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4080838687187926</v>
+        <v>0.4328030026506885</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.7549988775246284</v>
+        <v>0.7836187566317491</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.653860608783404</v>
+        <v>1.762688625473904</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.28878028423617</v>
+        <v>1.416192236295886</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.933459229653937</v>
+        <v>1.940591400993197</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.576682582990126</v>
+        <v>1.484705702745496</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.411079632043969</v>
+        <v>1.373894257434277</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.790182408629852</v>
+        <v>1.866527041271609</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.337570143602828</v>
+        <v>1.330081505870304</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.225129569513362</v>
+        <v>1.174050808058742</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.669678474362398</v>
+        <v>1.618626130478039</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>2.748313708962264</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.755193446237405</v>
+        <v>5.755193446237407</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.623026392657888</v>
@@ -878,7 +878,7 @@
         <v>4.225503345310827</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>5.500546097242555</v>
+        <v>5.500546097242556</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.207765265184126</v>
+        <v>-1.292456164097665</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.000440381836007</v>
+        <v>-2.24031900698982</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.5728297628856771</v>
+        <v>0.7846968890506</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.667284479469139</v>
+        <v>-5.073498529616558</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.75685844264156</v>
+        <v>-6.09243741340926</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.204304044504354</v>
+        <v>-4.599256280446117</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2523471354713707</v>
+        <v>-0.4937624377947684</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.499804300250393</v>
+        <v>-1.333372958222663</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7191180203110572</v>
+        <v>0.6393744144375342</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.26525610958455</v>
+        <v>9.968148906321298</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.67493487750673</v>
+        <v>6.708429781679655</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.231680067142932</v>
+        <v>9.168352851288573</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.04306871563203</v>
+        <v>17.23951091712248</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>13.11482384899139</v>
+        <v>12.72793190613638</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.99823816905773</v>
+        <v>11.39237432764789</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>11.21214256822705</v>
+        <v>11.27747173323445</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.345616560875973</v>
+        <v>8.712252212762618</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>8.92849731964743</v>
+        <v>9.160420676402067</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.9893195597128387</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>2.071715986325192</v>
+        <v>2.071715986325193</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.7561995925279574</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5130646996325124</v>
+        <v>-0.5263613879584982</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4448158853277296</v>
+        <v>-0.4452480842793897</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.01093914774417406</v>
+        <v>-0.03745609155688536</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3743632211974042</v>
+        <v>-0.4098973431016255</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4926759244812214</v>
+        <v>-0.4287163860774884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3106984075312927</v>
+        <v>-0.3051522404968059</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.05878724358954374</v>
+        <v>-0.08844511797027549</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2526244993340783</v>
+        <v>-0.2069604576719772</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.05644413654693716</v>
+        <v>0.03463234234120553</v>
       </c>
     </row>
     <row r="15">
@@ -1028,28 +1028,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr"/>
-      <c r="D15" s="6" t="inlineStr"/>
+      <c r="C15" s="6" t="n">
+        <v>11.3694744897007</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>7.928065705923238</v>
+      </c>
       <c r="E15" s="6" t="n">
-        <v>10.3665132031973</v>
+        <v>9.70131033402142</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.484242757529522</v>
+        <v>4.679062473009231</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.443555758109288</v>
+        <v>4.152355071823906</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.2905317720521</v>
+        <v>3.383940842695419</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4.393707347909552</v>
+        <v>4.234253914869236</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.016630534462484</v>
+        <v>3.514660720803825</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.562844054917474</v>
+        <v>3.669531589954467</v>
       </c>
     </row>
     <row r="16">
@@ -1088,7 +1092,7 @@
         <v>-1.059082623117717</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-0.98154245333417</v>
+        <v>-0.9815424533341693</v>
       </c>
     </row>
     <row r="17">
@@ -1099,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.363840001574286</v>
+        <v>-7.440979447276843</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.263562681796146</v>
+        <v>-5.481202523980952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.08472473115436</v>
+        <v>-10.36869397485479</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.04080526170426</v>
+        <v>-15.79895347636058</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-25.29094965997404</v>
+        <v>-25.43631614703116</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-22.6476737132051</v>
+        <v>-23.32395345086913</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-8.311784194328879</v>
+        <v>-8.766926565108152</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.24500225736302</v>
+        <v>-10.39094888934285</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-10.62330261105846</v>
+        <v>-9.589179785598796</v>
       </c>
     </row>
     <row r="18">
@@ -1134,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.91154430162698</v>
+        <v>11.82892244434237</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.22514001602556</v>
+        <v>16.26751735445425</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.719381309980629</v>
+        <v>7.351289191318918</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.52068677327202</v>
+        <v>24.50010915624238</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.034832518787606</v>
+        <v>4.599441564521343</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.207084697640031</v>
+        <v>5.673187091274283</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>12.35424361808721</v>
+        <v>13.93046414152442</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.42782891802769</v>
+        <v>7.980329104749985</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.782305507750791</v>
+        <v>5.012391308561805</v>
       </c>
     </row>
     <row r="19">
@@ -1175,7 +1179,7 @@
         <v>1.141218723644316</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5730226612456883</v>
+        <v>0.5730226612456881</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.1918137032294554</v>
@@ -1193,7 +1197,7 @@
         <v>-0.1497482031665584</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.138784468284256</v>
+        <v>-0.1387844682842559</v>
       </c>
     </row>
     <row r="20">
@@ -1206,21 +1210,19 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
-      <c r="F20" s="6" t="n">
-        <v>-1</v>
-      </c>
+      <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>-0.8495060001730697</v>
+        <v>-0.8397723146469402</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.8659932216159738</v>
+        <v>-1</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.9110461443431896</v>
+        <v>-0.9090285549393626</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.698443546494902</v>
+        <v>-0.6771060562514498</v>
       </c>
     </row>
     <row r="21">
@@ -1235,17 +1237,15 @@
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="n">
-        <v>1.730253428812705</v>
-      </c>
+      <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="n">
-        <v>5.698500537302191</v>
+        <v>4.762990800829124</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.006007959332827</v>
+        <v>4.307572841852621</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.351695790396572</v>
+        <v>2.997473431337647</v>
       </c>
     </row>
     <row r="22">
@@ -1275,7 +1275,7 @@
         <v>8.273053771149181</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>9.445478938507767</v>
+        <v>9.445478938507772</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>9.890576922359303</v>
@@ -1284,7 +1284,7 @@
         <v>6.390537566567126</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.245103177811909</v>
+        <v>7.245103177811907</v>
       </c>
     </row>
     <row r="23">
@@ -1295,31 +1295,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.194549559792963</v>
+        <v>3.090918371719817</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2131704541166534</v>
+        <v>0.9410493096335985</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.73739334621471</v>
+        <v>1.773911024038077</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7.593639438587572</v>
+        <v>8.083400109636093</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.211870681993823</v>
+        <v>4.09240415307729</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.133528654752139</v>
+        <v>5.979290975653228</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.102991168318422</v>
+        <v>6.961954276209882</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.309834857881157</v>
+        <v>3.384631561513515</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.700062521813736</v>
+        <v>4.738130456814432</v>
       </c>
     </row>
     <row r="24">
@@ -1330,31 +1330,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.83077602560397</v>
+        <v>10.83566719395696</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.153391648731246</v>
+        <v>7.516814870699204</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.820462383871535</v>
+        <v>7.661011184455822</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.56579819902825</v>
+        <v>16.28268813754391</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.69334512428891</v>
+        <v>12.88976315705943</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>12.76839364965597</v>
+        <v>12.92060794456215</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>13.16351503100257</v>
+        <v>13.0205862976259</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.030373319319516</v>
+        <v>9.169079433192277</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.539831950746338</v>
+        <v>9.37350275602072</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1380,7 @@
         <v>0.6146934454360629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7018054219292962</v>
+        <v>0.7018054219292966</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.8904136277114842</v>
@@ -1389,7 +1389,7 @@
         <v>0.5753174746368795</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6522509914579024</v>
+        <v>0.6522509914579022</v>
       </c>
     </row>
     <row r="26">
@@ -1400,31 +1400,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3082480351057985</v>
+        <v>0.3064329434472067</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02131094657348789</v>
+        <v>0.08321382748429351</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.182504426995259</v>
+        <v>0.1788063263292073</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4922754460121864</v>
+        <v>0.5095235863343855</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2569183081291431</v>
+        <v>0.2575464211716798</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.392159238253999</v>
+        <v>0.3782803252712608</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.568453306105757</v>
+        <v>0.5475952495140216</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.2711636289356791</v>
+        <v>0.2828264326050454</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3580175863652249</v>
+        <v>0.3628664833929387</v>
       </c>
     </row>
     <row r="27">
@@ -1435,31 +1435,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.768832974816422</v>
+        <v>1.68444389542918</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.1710358768968</v>
+        <v>1.18121419967267</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.283426973067463</v>
+        <v>1.243691560123677</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.44296407417099</v>
+        <v>1.437303692192808</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.093525632155643</v>
+        <v>1.121621787385323</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.168163084176113</v>
+        <v>1.20563076499289</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.321612440100883</v>
+        <v>1.336664325370227</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9261134367042355</v>
+        <v>0.9325782026198631</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9853101237716583</v>
+        <v>0.9857258527417855</v>
       </c>
     </row>
     <row r="28">
